--- a/templates/laporan_template.xlsx
+++ b/templates/laporan_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15428" windowHeight="14657"/>
+    <workbookView windowWidth="26914" windowHeight="14811"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>PT WASKITA BETON PRECAST TBK</t>
   </si>
@@ -105,16 +105,57 @@
     <t>a</t>
   </si>
   <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>0,83</t>
-  </si>
-  <si>
-    <t>0,86</t>
+    <r>
+      <t xml:space="preserve"> Ø       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <charset val="2"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="2"/>
+      </rPr>
+      <t>x30</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0,83</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Ø       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10x20</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0,86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           15x15</t>
   </si>
   <si>
     <t>TIPE TIPE RETAKAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           20x20</t>
   </si>
   <si>
     <t>0,95</t>
@@ -140,12 +181,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="38">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -215,6 +256,21 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Symbol"/>
@@ -222,8 +278,21 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Symbol"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -232,6 +301,80 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -242,20 +385,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -265,38 +394,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,36 +410,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,17 +424,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,11 +454,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <charset val="2"/>
     </font>
   </fonts>
   <fills count="35">
@@ -400,13 +475,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFD9D9D9"/>
+        <fgColor theme="0" tint="-0.149998474074526"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,7 +511,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,25 +547,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,19 +601,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,114 +655,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -858,26 +933,114 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -994,6 +1157,36 @@
       <top/>
       <bottom style="double">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1015,32 +1208,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1064,186 +1235,178 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="45" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1341,45 +1504,49 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1395,17 +1562,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1414,15 +1581,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1433,7 +1597,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1442,26 +1606,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1527,70 +1691,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="171450" cy="152400"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image11.png" title="Image"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3553460" y="8582025"/>
-          <a:ext cx="171450" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="171450" cy="152400"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="image11.png" title="Image"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3553460" y="8382000"/>
-          <a:ext cx="171450" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>443230</xdr:colOff>
       <xdr:row>40</xdr:row>
@@ -1603,7 +1703,7 @@
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2" cstate="print"/>
+        <a:blip r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1635,7 +1735,7 @@
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3" cstate="print"/>
+        <a:blip r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1667,7 +1767,7 @@
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4" cstate="print"/>
+        <a:blip r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1699,7 +1799,7 @@
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4" cstate="print"/>
+        <a:blip r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1731,7 +1831,7 @@
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5" cstate="print"/>
+        <a:blip r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1763,7 +1863,7 @@
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5" cstate="print"/>
+        <a:blip r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1795,7 +1895,7 @@
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6" cstate="print"/>
+        <a:blip r:embed="rId5" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1827,7 +1927,7 @@
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7" cstate="print"/>
+        <a:blip r:embed="rId6" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1859,7 +1959,7 @@
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8" cstate="print"/>
+        <a:blip r:embed="rId7" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1891,7 +1991,7 @@
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9" cstate="print"/>
+        <a:blip r:embed="rId8" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1923,7 +2023,7 @@
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10" cstate="print"/>
+        <a:blip r:embed="rId9" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1955,7 +2055,7 @@
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11" cstate="print"/>
+        <a:blip r:embed="rId10" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1987,7 +2087,7 @@
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12" cstate="print"/>
+        <a:blip r:embed="rId11" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1996,38 +2096,6 @@
         <a:xfrm>
           <a:off x="13773150" y="9028430"/>
           <a:ext cx="257175" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1132840</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1133475" cy="419100"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="image14.png" title="Image"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId13" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17716500" y="695325"/>
-          <a:ext cx="1133475" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2051,7 +2119,7 @@
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId14" cstate="print"/>
+        <a:blip r:embed="rId12" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2069,6 +2137,125 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>810895</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>218440</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>168910</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17394555" y="715010"/>
+          <a:ext cx="1057910" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>42545</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>20955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>223520</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>191135</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35" descr="Picture3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3215005" y="8364855"/>
+          <a:ext cx="180975" cy="170180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>17145</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>226695</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>187325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36" descr="Picture3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3218180" y="8561070"/>
+          <a:ext cx="180975" cy="170180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2263,7 +2450,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
 </a:theme>
 </file>
 
@@ -2274,8 +2487,8 @@
   </sheetPr>
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6333333333333" defaultRowHeight="15.75" customHeight="1"/>
@@ -2358,10 +2571,10 @@
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="N4" s="86"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="86"/>
     </row>
     <row r="5" ht="19" customHeight="1" spans="1:17">
       <c r="A5" s="1"/>
@@ -2379,7 +2592,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
-      <c r="N5" s="88"/>
+      <c r="N5" s="87"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -2450,7 +2663,7 @@
       <c r="B9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="86"/>
+      <c r="N9" s="85"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -2458,7 +2671,7 @@
     <row r="10" customHeight="1" spans="1:17">
       <c r="A10" s="1"/>
       <c r="B10" s="14"/>
-      <c r="N10" s="86"/>
+      <c r="N10" s="85"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -2477,7 +2690,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
-      <c r="N11" s="89"/>
+      <c r="N11" s="88"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -2642,16 +2855,16 @@
       <c r="D19" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="62" t="s">
+      <c r="E19" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="62" t="s">
+      <c r="F19" s="63" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="63" t="s">
+      <c r="H19" s="21" t="s">
         <v>16</v>
       </c>
       <c r="I19" s="21" t="s">
@@ -2664,8 +2877,8 @@
         <v>19</v>
       </c>
       <c r="L19" s="77"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="62" t="s">
+      <c r="M19" s="89"/>
+      <c r="N19" s="63" t="s">
         <v>20</v>
       </c>
       <c r="O19" s="1"/>
@@ -2685,7 +2898,7 @@
       <c r="J20" s="24"/>
       <c r="K20" s="26"/>
       <c r="L20" s="78"/>
-      <c r="M20" s="91"/>
+      <c r="M20" s="90"/>
       <c r="N20" s="64"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -2702,13 +2915,13 @@
       <c r="H21" s="67"/>
       <c r="I21" s="27"/>
       <c r="J21" s="27"/>
-      <c r="K21" s="79" t="s">
+      <c r="K21" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="L21" s="80" t="s">
+      <c r="L21" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="M21" s="80" t="s">
+      <c r="M21" s="79" t="s">
         <v>23</v>
       </c>
       <c r="N21" s="66"/>
@@ -2982,8 +3195,8 @@
       <c r="I34" s="68"/>
       <c r="J34" s="68"/>
       <c r="K34" s="68"/>
-      <c r="L34" s="81"/>
-      <c r="M34" s="81"/>
+      <c r="L34" s="80"/>
+      <c r="M34" s="80"/>
       <c r="N34" s="43"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -3001,8 +3214,8 @@
       <c r="I35" s="28"/>
       <c r="J35" s="28"/>
       <c r="K35" s="28"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="82"/>
+      <c r="L35" s="81"/>
+      <c r="M35" s="81"/>
       <c r="N35" s="76"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -3079,10 +3292,10 @@
       <c r="A39" s="1"/>
       <c r="B39" s="45"/>
       <c r="C39" s="52" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D39" s="53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -3101,22 +3314,24 @@
     <row r="40" customHeight="1" spans="1:17">
       <c r="A40" s="1"/>
       <c r="B40" s="54"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="53">
+      <c r="C40" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="56">
         <v>1</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="76"/>
-      <c r="I40" s="83" t="s">
-        <v>31</v>
-      </c>
-      <c r="J40" s="83"/>
-      <c r="K40" s="83"/>
-      <c r="L40" s="83"/>
-      <c r="M40" s="83"/>
-      <c r="N40" s="92"/>
+      <c r="I40" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="J40" s="82"/>
+      <c r="K40" s="82"/>
+      <c r="L40" s="82"/>
+      <c r="M40" s="82"/>
+      <c r="N40" s="91"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
@@ -3124,9 +3339,11 @@
     <row r="41" customHeight="1" spans="1:17">
       <c r="A41" s="1"/>
       <c r="B41" s="45"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="57" t="s">
-        <v>32</v>
+      <c r="C41" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="58" t="s">
+        <v>35</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -3200,7 +3417,7 @@
     </row>
     <row r="45" customHeight="1" spans="1:17">
       <c r="A45" s="1"/>
-      <c r="B45" s="58"/>
+      <c r="B45" s="59"/>
       <c r="C45" s="1"/>
       <c r="D45" s="2"/>
       <c r="E45" s="1"/>
@@ -3228,19 +3445,19 @@
       <c r="H46" s="76"/>
       <c r="I46" s="1"/>
       <c r="J46" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="K46" s="84" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="K46" s="83" t="s">
+        <v>37</v>
       </c>
       <c r="L46" s="28" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M46" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="N46" s="93" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="N46" s="92" t="s">
+        <v>40</v>
       </c>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
@@ -3275,30 +3492,30 @@
       <c r="G48" s="1"/>
       <c r="H48" s="76"/>
       <c r="I48" s="3"/>
-      <c r="J48" s="85"/>
+      <c r="J48" s="84"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
-      <c r="N48" s="94"/>
+      <c r="N48" s="93"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
     </row>
     <row r="49" customHeight="1" spans="1:17">
       <c r="A49" s="1"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="60"/>
-      <c r="H49" s="60"/>
-      <c r="I49" s="60"/>
-      <c r="J49" s="60"/>
-      <c r="K49" s="60"/>
-      <c r="L49" s="60"/>
-      <c r="M49" s="60"/>
-      <c r="N49" s="95"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="61"/>
+      <c r="L49" s="61"/>
+      <c r="M49" s="61"/>
+      <c r="N49" s="94"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
